--- a/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_60.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_3_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.02353668942141</v>
+        <v>89.84321917462822</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8304262150191827</v>
+        <v>0.7721860699290896</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.98757560795448</v>
+        <v>88.91370057906548</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7333204383217591</v>
+        <v>0.7037079863468639</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>88.16668750601028</v>
+        <v>88.09952542722147</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7419220617000944</v>
+        <v>0.7525589323840488</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.00737192124532</v>
+        <v>86.92136796689709</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6867371714228194</v>
+        <v>0.7142421812645094</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.99341720492802</v>
+        <v>85.99255953867116</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7915902136337488</v>
+        <v>0.7294936149297618</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.94652745116851</v>
+        <v>85.07886697798806</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8184382742878747</v>
+        <v>0.6558823637043719</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.8407870749307</v>
+        <v>84.00753063044556</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7918450369539201</v>
+        <v>0.7705549419824796</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.99534016723999</v>
+        <v>82.79955795708948</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8413277273225833</v>
+        <v>0.8116710820418718</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.90638711550326</v>
+        <v>82.00904220471038</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6891666607788965</v>
+        <v>0.7654038858213449</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.92001921418843</v>
+        <v>81.04005070399403</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8126826910624539</v>
+        <v>0.8169641431294929</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.19251932045483</v>
+        <v>80.01799989951343</v>
       </c>
       <c r="D12" t="n">
-        <v>0.739137729438766</v>
+        <v>0.7717807499551179</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.94760592742192</v>
+        <v>78.9232694060689</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7981377661023722</v>
+        <v>0.7718001572207459</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.01034624242216</v>
+        <v>77.87746759816032</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8336303600531739</v>
+        <v>0.7642125887495188</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.95821785596716</v>
+        <v>77.01042023893038</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8009429665003515</v>
+        <v>0.7100055086146747</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.01569670139061</v>
+        <v>76.0291493560583</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7185046082559489</v>
+        <v>0.7501974376221345</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.10570545701553</v>
+        <v>75.08662954991347</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8475733363665353</v>
+        <v>0.8479076080068589</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.99779505956361</v>
+        <v>73.92152093950591</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7655435923221569</v>
+        <v>0.807667459491533</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.91258254569854</v>
+        <v>73.04992324438382</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8618742033298813</v>
+        <v>0.7116179701247074</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.96537926814506</v>
+        <v>72.12609196817499</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8967695599944127</v>
+        <v>0.7736774239654272</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.11163566917836</v>
+        <v>70.99293973748482</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8037946162539527</v>
+        <v>0.767663758225914</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.05940041703238</v>
+        <v>70.07159647466726</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7061725210565138</v>
+        <v>0.6760698562154425</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.89026841437916</v>
+        <v>69.00069381818193</v>
       </c>
       <c r="D23" t="n">
-        <v>0.755343136198696</v>
+        <v>0.8023130856181756</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.95583868450011</v>
+        <v>67.92365423724321</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8443917261265699</v>
+        <v>0.9014780098150948</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.02088205833782</v>
+        <v>67.11468956783929</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7781530460302526</v>
+        <v>0.8610765613890184</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.14792498039213</v>
+        <v>66.09024056910651</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9614737569858011</v>
+        <v>0.8643802156821728</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.98670279801615</v>
+        <v>64.93069844762402</v>
       </c>
       <c r="D27" t="n">
-        <v>0.83012067755595</v>
+        <v>0.8628735264033015</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.06607037169896</v>
+        <v>64.00140912585609</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9744234103006565</v>
+        <v>0.8249684336701461</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.95594493037698</v>
+        <v>62.87972153246547</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7915142467639773</v>
+        <v>1.044396929253187</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.05620240644952</v>
+        <v>61.85957367074511</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7807216393318918</v>
+        <v>0.9580912709587918</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>61.04317624531295</v>
+        <v>61.01657811662505</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9207318106654301</v>
+        <v>0.9112067830609278</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.09724176599232</v>
+        <v>59.64573545364217</v>
       </c>
       <c r="D32" t="n">
-        <v>0.8695046718646534</v>
+        <v>0.7965868102980999</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.00748297983982</v>
+        <v>59.10083987783156</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8003494728612516</v>
+        <v>0.8712674847952578</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.12854936386603</v>
+        <v>57.97840596919986</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9124093646832855</v>
+        <v>0.8269043062409868</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.94868922843036</v>
+        <v>57.04480412703306</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9123393712229405</v>
+        <v>0.8710068571496322</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.92954436426612</v>
+        <v>56.07647876844811</v>
       </c>
       <c r="D36" t="n">
-        <v>0.8392348283049705</v>
+        <v>0.9308767090750926</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.90075812929065</v>
+        <v>54.98361259279481</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9002719118473343</v>
+        <v>0.8020990242342598</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.07449460233443</v>
+        <v>54.05606564852765</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9798641332219274</v>
+        <v>0.9095390396888978</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.03521521057786</v>
+        <v>52.92230393801034</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9420775536034317</v>
+        <v>0.9336098640860442</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.05227603926105</v>
+        <v>52.0569709976867</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9069597047918166</v>
+        <v>0.9008531056664295</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.03532378511153</v>
+        <v>51.11264374068118</v>
       </c>
       <c r="D41" t="n">
-        <v>0.8228317210544123</v>
+        <v>1.036961699551501</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.90986637424903</v>
+        <v>49.97742914360248</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8462391663116089</v>
+        <v>0.8599033318907039</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.99324765058229</v>
+        <v>48.87212723769167</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9117546922579823</v>
+        <v>0.8887972642019507</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.91205675382334</v>
+        <v>47.90005146925685</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9157366713563618</v>
+        <v>0.9449927352482856</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.95987912717891</v>
+        <v>46.98728627812947</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9222252800841236</v>
+        <v>1.018116371276405</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.01741760078639</v>
+        <v>45.94971408908939</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9594539536928118</v>
+        <v>0.8656633193581282</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.16693259293216</v>
+        <v>44.97957570059507</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7914203304435112</v>
+        <v>0.9803910804793678</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.10057777052729</v>
+        <v>44.07935818849575</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8623382219698016</v>
+        <v>1.018951720554517</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.99171715354866</v>
+        <v>42.99316540894778</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8819058959062168</v>
+        <v>0.9254626789739827</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.06612184630248</v>
+        <v>42.02280708085882</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9131377678854257</v>
+        <v>1.070612119791186</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.97844183455026</v>
+        <v>40.92899378797842</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9976651779693008</v>
+        <v>0.9537334008359404</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.88280898198609</v>
+        <v>40.01081259109591</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9267970641064662</v>
+        <v>0.9706624788574109</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.04988871018408</v>
+        <v>39.00324680329055</v>
       </c>
       <c r="D53" t="n">
-        <v>1.01743619481381</v>
+        <v>1.056467267912708</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.15245649124327</v>
+        <v>37.89711894389849</v>
       </c>
       <c r="D54" t="n">
-        <v>1.016798954395943</v>
+        <v>0.9958882700923802</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.85715163409713</v>
+        <v>37.1910731888842</v>
       </c>
       <c r="D55" t="n">
-        <v>1.024990268571794</v>
+        <v>1.062102266896023</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.82884039762428</v>
+        <v>36.0816359077934</v>
       </c>
       <c r="D56" t="n">
-        <v>1.099310132569302</v>
+        <v>0.8912971857873806</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.02551424067141</v>
+        <v>34.90746897517565</v>
       </c>
       <c r="D57" t="n">
-        <v>1.003348189345753</v>
+        <v>0.9093510424126032</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.0006662582955</v>
+        <v>33.87961130373728</v>
       </c>
       <c r="D58" t="n">
-        <v>1.102948379536138</v>
+        <v>0.9245915247287214</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.03070134788382</v>
+        <v>32.87286305433818</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9520992915107244</v>
+        <v>1.056611346801405</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.99021574308995</v>
+        <v>32.09416246454808</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9508539417576893</v>
+        <v>1.016790077420422</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.79477298644145</v>
+        <v>31.09387289640149</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9831364906427759</v>
+        <v>1.040719682453107</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>29.8609331474404</v>
+        <v>30.08647028974107</v>
       </c>
       <c r="D62" t="n">
-        <v>1.127787510078847</v>
+        <v>0.9983728030248206</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.96203940033584</v>
+        <v>29.01699211207969</v>
       </c>
       <c r="D63" t="n">
-        <v>0.9284332732435733</v>
+        <v>0.9492583156537757</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.12865646815931</v>
+        <v>27.84461155598598</v>
       </c>
       <c r="D64" t="n">
-        <v>1.040107096767931</v>
+        <v>0.9740793506844804</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.03754599469105</v>
+        <v>26.84920664984156</v>
       </c>
       <c r="D65" t="n">
-        <v>1.134241620274126</v>
+        <v>1.179503270609285</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.97827006836221</v>
+        <v>25.97658026054098</v>
       </c>
       <c r="D66" t="n">
-        <v>1.112645610254756</v>
+        <v>1.081178713200972</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.89889211383571</v>
+        <v>24.80234763504638</v>
       </c>
       <c r="D67" t="n">
-        <v>1.126107816377579</v>
+        <v>1.221986857098282</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.01067295138383</v>
+        <v>23.9979415904929</v>
       </c>
       <c r="D68" t="n">
-        <v>1.087969806142824</v>
+        <v>1.036778612476728</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.06180467905797</v>
+        <v>22.93247602208052</v>
       </c>
       <c r="D69" t="n">
-        <v>1.128038949546064</v>
+        <v>1.003829841525719</v>
       </c>
     </row>
   </sheetData>
